--- a/Output/YL_growth_media.xlsx
+++ b/Output/YL_growth_media.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c5a228e4bc8237/Dokumente/GitHub/Modeling_iGEM/Output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_480182E8F613C836C261089CE5A67F434B44F283" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="3720" windowWidth="5385" windowHeight="5220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>This C-source is set to 1000</t>
   </si>
@@ -46,6 +40,12 @@
     <t>4_Aminobutanoate</t>
   </si>
   <si>
+    <t>EX_ac_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>Acetate</t>
+  </si>
+  <si>
     <t>EX_adn_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -70,6 +70,12 @@
     <t>S_Adenosyl_L_methionine</t>
   </si>
   <si>
+    <t>EX_arg_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>L_Arginine</t>
+  </si>
+  <si>
     <t>EX_asp_L_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -106,6 +112,12 @@
     <t>D_Fructose</t>
   </si>
   <si>
+    <t>EX_fum_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>Fumarate</t>
+  </si>
+  <si>
     <t>EX_gal_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -130,6 +142,12 @@
     <t>L_Glutamate</t>
   </si>
   <si>
+    <t>EX_gly_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
     <t>EX_glyc_LPAREN_e_RPAREN_</t>
   </si>
   <si>
@@ -170,6 +188,12 @@
   </si>
   <si>
     <t>L_Leucine</t>
+  </si>
+  <si>
+    <t>EX_mal_L_LPAREN_e_RPAREN_</t>
+  </si>
+  <si>
+    <t>L_Malate</t>
   </si>
   <si>
     <t>EX_malt_LPAREN_e_RPAREN_</t>
@@ -313,8 +337,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,23 +371,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,27 +453,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,24 +487,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,16 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,521 +677,576 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.8892662641697691</v>
+        <v>22.27893786422008</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.8892662641697671</v>
+        <v>22.27893786422003</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.062294760022843</v>
+        <v>14.5730904019531</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.680468881765466</v>
+        <v>4.462686209858576</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.42504409529262999</v>
+        <v>20.44733075794986</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.52510658581333958</v>
+        <v>9.402120829913581</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1.6949752769968409</v>
+        <v>9.52080076075611</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.6426393391103029E-2</v>
+        <v>20.61579388838325</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>4.8022881999674319E-2</v>
+        <v>6.274228004709615</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.8215311055479374</v>
+        <v>5.405475341295402</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>3.1503407784975059</v>
+        <v>5.902838105338931</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.13466701083422811</v>
+        <v>12.77731609694419</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>1.925131371601227</v>
+        <v>17.02142353107085</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15">
-        <v>1.925131371601273</v>
+        <v>6.836676608072284</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16">
-        <v>1.6629112440317779</v>
+        <v>22.60922520216982</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17">
-        <v>0.69596471638166413</v>
+        <v>5.22182123677204</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18">
-        <v>0.63835652746963012</v>
+        <v>22.60922520217034</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19">
-        <v>0.29630016371028478</v>
+        <v>20.57298451955121</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20">
-        <v>1.646668045033528</v>
+        <v>12.21035544296767</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21">
-        <v>5.5088074977811328</v>
+        <v>11.52328634984041</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22">
-        <v>5.1814372050805453</v>
+        <v>4.513163024622998</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23">
-        <v>1.713046338225978</v>
+        <v>8.358894948004831</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.42410348816372562</v>
+        <v>20.09776284661078</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25">
-        <v>1.951176636832898</v>
+        <v>24.34087343565809</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26">
-        <v>4.2386434653820837</v>
+        <v>22.73102111111869</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27">
-        <v>1.9251313716012941</v>
+        <v>20.76387290993038</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28">
-        <v>4.2386434653820579</v>
+        <v>8.768127544120521</v>
       </c>
       <c r="C28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29">
-        <v>6.0997422393736924</v>
+        <v>20.99362369482531</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30">
-        <v>6.0820256235440748</v>
+        <v>5.221821236772261</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31">
-        <v>5.9388194662855271</v>
+        <v>37.30099350211583</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32">
-        <v>1.3832400585620459</v>
+        <v>22.60922520217009</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33">
-        <v>9.6674075594330722E-2</v>
+        <v>37.30099350211418</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34">
-        <v>1.382841419094367</v>
+        <v>24.25486894013067</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35">
-        <v>0.32631619552765512</v>
+        <v>24.14182604892281</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36">
-        <v>1.516269146882034</v>
+        <v>23.55263391112236</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37">
-        <v>2.0506592476115579</v>
+        <v>18.21844275855094</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38">
-        <v>0.33074927243041968</v>
+        <v>5.277688897879497</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39">
-        <v>0.1538245524142603</v>
+        <v>18.21329662472788</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40">
-        <v>0.69187013578316225</v>
+        <v>7.869643350976938</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41">
-        <v>4.2389873819806789</v>
+        <v>18.84394954953834</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42">
-        <v>4.6722733688976188</v>
+        <v>23.63011017067225</v>
       </c>
       <c r="C42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43">
-        <v>2.0979028251417029</v>
+        <v>7.960925278045589</v>
       </c>
       <c r="C43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44">
-        <v>0.85089411755920308</v>
+        <v>6.789433584200371</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45">
-        <v>1.400693401991399</v>
+        <v>11.22224233802999</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46">
-        <v>1.6752957495420751</v>
+        <v>37.30553637173379</v>
       </c>
       <c r="C46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47">
-        <v>1.432296101844531</v>
+        <v>23.25950693783317</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="B48">
-        <v>1.6400477631074279</v>
+        <v>22.6077994896477</v>
       </c>
       <c r="C48" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>13.08579300556012</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <v>17.14047904422139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>20.36637420801975</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>18.11731740604808</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>19.99995523236394</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
